--- a/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.9.xlsx
+++ b/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.9.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -356,10 +356,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.9.xlsx
+++ b/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.9.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
